--- a/Client/Assets/Excels/CardInfo.xlsx
+++ b/Client/Assets/Excels/CardInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD9187-4739-45F0-B959-44F829DFA19C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA32464-6E6E-4B05-BE7A-6FEE7C985BD6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="7260" xr2:uid="{D77DE72B-4FC0-481A-96EF-11BA6B0C2173}"/>
   </bookViews>
@@ -31,26 +31,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我…我是隔壁4班的张志军…</t>
-  </si>
-  <si>
-    <t>周五放学后14:30，我会在图书馆门口等你。</t>
-  </si>
-  <si>
     <t>你是谁？</t>
   </si>
   <si>
     <t>你到底是谁？</t>
-  </si>
-  <si>
-    <t>可以啊，那就放学见！</t>
-  </si>
-  <si>
-    <t>抱歉，我周五放学有事…</t>
-  </si>
-  <si>
-    <t>卡片内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L</t>
@@ -90,6 +74,26 @@
   </si>
   <si>
     <t>卡片位置类型（L/R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我…我是隔壁-4班的张志军…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五放学后14:30，-我会在图书馆-门口等你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以啊，-那就放学见！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片内容(行间用-分隔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，我周五-放学有事…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +502,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -539,45 +543,45 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,22 +589,22 @@
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -608,22 +612,22 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,22 +635,22 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -654,22 +658,22 @@
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Excels/CardInfo.xlsx
+++ b/Client/Assets/Excels/CardInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA32464-6E6E-4B05-BE7A-6FEE7C985BD6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B90054-5E4E-4FAB-9ABC-552C29117E12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="7260" xr2:uid="{D77DE72B-4FC0-481A-96EF-11BA6B0C2173}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>卡片编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我…我是隔壁-4班的张志军…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五放学后14:30，-我会在图书馆-门口等你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以啊，-那就放学见！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +87,132 @@
   <si>
     <t>抱歉，我周五-放学有事…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>周五放学后14:30，-我会在图书馆-门口等你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我数学-不太行…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:20-在图书馆门口-等候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实我挺-擅长物理的！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从小英语-就是主课里-最烂的…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然搞不懂文言文-但我很擅长-写议论文！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试-我化学是-年级第三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天色已暗-打算请对方-吃晚饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不早了-打算送对方-回家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我…我是隔壁-4班的张智君…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30抵达-图书馆门口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班委临时开会-15:00抵达-图书馆门口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急着回家-和朋友开黑-忘记了约定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我物理还行-但化学-怎么都搞不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的数学-从小到大都是-班级第一哦~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不太擅长-英语…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然很想-吃KFB的-吮指辣味鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里没人-带的钱也不多-只好去买便当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有那么-高冷吗^^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能和你一起-复习考试-我很开心…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到你-真的会答应我！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很早就想-约你了-但一直不敢…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓起勇气-说出自己的-真实心意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想和对方-成为好朋友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在图书馆复习-感觉效率特别高！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许可以-尝试一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想到了-另一个人的-身影…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们不是-朋友吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,12 +255,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -171,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +313,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F81F1-A25E-41F7-8097-B2F0DC8A9530}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -558,10 +700,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -581,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -650,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -673,7 +815,605 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>111</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>112</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>113</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>114</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>115</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>116</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>117</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>118</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>119</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>123</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>124</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>126</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>131</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>132</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Excels/CardInfo.xlsx
+++ b/Client/Assets/Excels/CardInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D25A4-DB8D-454D-9630-3952AF9EF072}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFE3D9-3132-4FAC-BACA-4B56ACABB4AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="7260" xr2:uid="{D77DE72B-4FC0-481A-96EF-11BA6B0C2173}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>卡片编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
   <si>
     <t>我们不是-朋友吗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L/R</t>
@@ -691,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F81F1-A25E-41F7-8097-B2F0DC8A9530}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,48 +709,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -762,7 +758,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -788,7 +784,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -814,7 +810,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -840,7 +836,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -866,7 +862,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -892,7 +888,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -918,7 +914,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -944,7 +940,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -970,7 +966,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -996,7 +992,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1022,7 +1018,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1048,7 +1044,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1074,7 +1070,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1100,7 +1096,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1126,7 +1122,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -1152,7 +1148,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -1178,7 +1174,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1204,7 +1200,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1230,7 +1226,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1256,7 +1252,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1282,7 +1278,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1308,7 +1304,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
@@ -1334,7 +1330,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
@@ -1360,7 +1356,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -1386,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
@@ -1412,7 +1408,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
@@ -1438,7 +1434,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
@@ -1464,7 +1460,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -1490,7 +1486,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -1516,7 +1512,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1542,7 +1538,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -1568,7 +1564,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>23</v>
@@ -1588,67 +1584,6 @@
       <c r="H34" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>133</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Excels/CardInfo.xlsx
+++ b/Client/Assets/Excels/CardInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB2065-6A71-4160-9C10-E44C77C074ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E7E42-D20A-41C5-A911-15DA954B06BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="7260" xr2:uid="{D77DE72B-4FC0-481A-96EF-11BA6B0C2173}"/>
   </bookViews>
@@ -839,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F81F1-A25E-41F7-8097-B2F0DC8A9530}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
